--- a/Plazas_Cobro.xlsx
+++ b/Plazas_Cobro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C921FA9-17B2-4CB5-A8AF-CA8A0B9787E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB206F-DD07-4E42-84F8-DE00D41C0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_12.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Plazas_Cobro.xlsx
+++ b/Plazas_Cobro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB206F-DD07-4E42-84F8-DE00D41C0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931EC87-108A-4F1F-B866-8ABFBFA25F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_12.1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
   <si>
     <t>Huachichil</t>
   </si>
@@ -375,6 +369,9 @@
   </si>
   <si>
     <t>Plazas de cobro a cargo de CAPUFE 2022</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -786,151 +783,151 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -943,563 +940,563 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
@@ -1508,14 +1505,13 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C93" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="6"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C94" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C94" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Plazas_Cobro.xlsx
+++ b/Plazas_Cobro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931EC87-108A-4F1F-B866-8ABFBFA25F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDCFF52-34CA-4342-9F63-65AD58954007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Esperanza</t>
   </si>
   <si>
-    <t>Fundicón No. 149</t>
-  </si>
-  <si>
     <t>Estación Don No. 148</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Fundición No. 149</t>
   </si>
 </sst>
 </file>
@@ -783,15 +783,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -839,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -847,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -863,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
@@ -911,23 +911,23 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -940,573 +940,573 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="6"/>
     </row>

--- a/Plazas_Cobro.xlsx
+++ b/Plazas_Cobro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDCFF52-34CA-4342-9F63-65AD58954007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B878C-EA83-4142-BD3B-730FAC758698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -368,10 +368,10 @@
     <t>Plazas de cobro a cargo de CAPUFE 2022</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Fundición No. 149</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -385,33 +385,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -419,7 +419,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -548,7 +548,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -556,28 +556,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -586,14 +586,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -774,19 +774,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="27.69921875" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
@@ -794,7 +794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -810,7 +810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -818,7 +818,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -826,7 +826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -842,7 +842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
@@ -850,7 +850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
@@ -858,7 +858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -874,7 +874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
@@ -882,7 +882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -890,7 +890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
@@ -898,7 +898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
@@ -914,15 +914,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
@@ -963,7 +963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
@@ -971,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
@@ -979,7 +979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>21</v>
       </c>
@@ -987,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -995,7 +995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>34</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>35</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>36</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>40</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>41</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>42</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>44</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>45</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>46</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>48</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>50</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>51</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>52</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>54</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>55</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>56</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>57</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>58</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>59</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>60</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>61</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>63</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>64</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>65</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>66</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>67</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>68</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>69</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>70</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>71</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>72</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>73</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>74</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>75</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>76</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>77</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>78</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>79</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>80</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>81</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>82</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>83</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>84</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>85</v>
       </c>
@@ -1499,18 +1499,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>108</v>
       </c>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C94" s="6"/>
     </row>
   </sheetData>

--- a/Plazas_Cobro.xlsx
+++ b/Plazas_Cobro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B878C-EA83-4142-BD3B-730FAC758698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85380FD3-6AF6-4CE3-B0FC-4F313DB23915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -390,12 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -410,17 +404,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -509,24 +511,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -768,753 +770,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:K94"/>
+  <dimension ref="B2:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:3" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="6"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C94" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plazas_Cobro.xlsx
+++ b/Plazas_Cobro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34824C4B-9C1A-4C48-B58B-80B7AD0BEA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DB340-2485-42E1-A04B-2ACE812992CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_12.1" sheetId="1" r:id="rId1"/>
@@ -1605,7 +1605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1721,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1735,7 +1735,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,7 +1743,10 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1769,6 +1772,49 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1869,68 +1915,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1967,6 +1951,25 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2030,21 +2033,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C68F87EC-97C5-4E7A-9EF6-1AE3310196AB}" name="Tabla1" displayName="Tabla1" ref="B4:J131" totalsRowShown="0" headerRowDxfId="12" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10" dataCellStyle="20% - Énfasis5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C68F87EC-97C5-4E7A-9EF6-1AE3310196AB}" name="Tabla1" displayName="Tabla1" ref="B4:J131" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" dataCellStyle="20% - Énfasis5">
   <autoFilter ref="B4:J131" xr:uid="{C68F87EC-97C5-4E7A-9EF6-1AE3310196AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J131">
     <sortCondition ref="E4:E131"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A0ED9664-9EE4-44E6-93C8-F7AFC35EB6D3}" name="Tipo de red" dataDxfId="9" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{B8CADD0A-A859-4321-86E9-84CE85CE7CA6}" name="Unidad regional" dataDxfId="8" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{51F98BD2-69D7-495C-959F-48A47690C45D}" name="Entidad federativa" dataDxfId="7" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="5" xr3:uid="{40AACCE6-FB37-461A-8F62-BA78F4EEF6E7}" name="No. de plaza" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="7" xr3:uid="{C647A7F2-A373-4BC5-B271-99C9770A7B01}" name="Nombre" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="6" xr3:uid="{7FEDA41C-89AF-4B13-92D3-316B9663E1FC}" name="No. de casetas" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="8" xr3:uid="{5B56C642-8099-4EE3-9EDB-0DB0FBD5BE3C}" name="Tramo" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="9" xr3:uid="{FE6899CE-4AAE-41CD-BF4C-0C4B113B0F61}" name="Ubicación" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="10" xr3:uid="{5B5B83C0-E779-42F6-ABE9-09ECEE55F7E6}" name="Coordenadas" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="1" xr3:uid="{A0ED9664-9EE4-44E6-93C8-F7AFC35EB6D3}" name="Tipo de red" dataDxfId="8" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{B8CADD0A-A859-4321-86E9-84CE85CE7CA6}" name="Unidad regional" dataDxfId="7" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{51F98BD2-69D7-495C-959F-48A47690C45D}" name="Entidad federativa" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="5" xr3:uid="{40AACCE6-FB37-461A-8F62-BA78F4EEF6E7}" name="No. de plaza" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="7" xr3:uid="{C647A7F2-A373-4BC5-B271-99C9770A7B01}" name="Nombre" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="6" xr3:uid="{7FEDA41C-89AF-4B13-92D3-316B9663E1FC}" name="No. de casetas" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="8" xr3:uid="{5B56C642-8099-4EE3-9EDB-0DB0FBD5BE3C}" name="Tramo" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="9" xr3:uid="{FE6899CE-4AAE-41CD-BF4C-0C4B113B0F61}" name="Ubicación" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="10" xr3:uid="{5B5B83C0-E779-42F6-ABE9-09ECEE55F7E6}" name="Coordenadas" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2279,7 +2282,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
@@ -2294,12 +2297,12 @@
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="18">
       <c r="B2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="39" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="33">
       <c r="B4" s="4" t="s">
         <v>507</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10">
       <c r="B5" s="9" t="s">
         <v>98</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10">
       <c r="B6" s="3" t="s">
         <v>98</v>
       </c>
@@ -2370,7 +2373,7 @@
       <c r="E6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="3">
@@ -2386,7 +2389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10">
       <c r="B7" s="9" t="s">
         <v>98</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10">
       <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
@@ -2428,7 +2431,7 @@
       <c r="E8" s="7">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="3">
@@ -2444,7 +2447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10">
       <c r="B9" s="9" t="s">
         <v>98</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2486,7 +2489,7 @@
       <c r="E10" s="7">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="3">
@@ -2502,7 +2505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10">
       <c r="B11" s="9" t="s">
         <v>98</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10">
       <c r="B12" s="3" t="s">
         <v>98</v>
       </c>
@@ -2544,7 +2547,7 @@
       <c r="E12" s="7">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="3">
@@ -2560,7 +2563,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10">
       <c r="B14" s="3" t="s">
         <v>94</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="E14" s="7">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>210</v>
       </c>
       <c r="G14" s="3">
@@ -2618,7 +2621,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10">
       <c r="B15" s="9" t="s">
         <v>94</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10">
       <c r="B16" s="3" t="s">
         <v>94</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="E16" s="7">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="11" t="s">
         <v>240</v>
       </c>
       <c r="G16" s="3">
@@ -2676,7 +2679,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="B17" s="9" t="s">
         <v>94</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10">
       <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
@@ -2718,7 +2721,7 @@
       <c r="E18" s="7">
         <v>24</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="3">
@@ -2734,7 +2737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10">
       <c r="B19" s="9" t="s">
         <v>98</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
         <v>98</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="E20" s="7">
         <v>26</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="3">
@@ -2792,7 +2795,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10">
       <c r="B21" s="9" t="s">
         <v>98</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10">
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="E22" s="7">
         <v>28</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G22" s="3">
@@ -2850,7 +2853,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10">
       <c r="B23" s="9" t="s">
         <v>94</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10">
       <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="E24" s="7">
         <v>30</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="11" t="s">
         <v>291</v>
       </c>
       <c r="G24" s="3">
@@ -2908,7 +2911,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10">
       <c r="B25" s="9" t="s">
         <v>94</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10">
       <c r="B26" s="3" t="s">
         <v>94</v>
       </c>
@@ -2950,7 +2953,7 @@
       <c r="E26" s="7">
         <v>33</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="11" t="s">
         <v>227</v>
       </c>
       <c r="G26" s="3">
@@ -2966,7 +2969,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10">
       <c r="B27" s="9" t="s">
         <v>98</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10">
       <c r="B28" s="3" t="s">
         <v>98</v>
       </c>
@@ -3008,7 +3011,7 @@
       <c r="E28" s="7">
         <v>35</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="3">
@@ -3024,7 +3027,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10">
       <c r="B29" s="9" t="s">
         <v>98</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10">
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
@@ -3066,7 +3069,7 @@
       <c r="E30" s="7">
         <v>37</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G30" s="3">
@@ -3082,7 +3085,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10">
       <c r="B31" s="9" t="s">
         <v>94</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10">
       <c r="B32" s="3" t="s">
         <v>94</v>
       </c>
@@ -3124,7 +3127,7 @@
       <c r="E32" s="7">
         <v>39</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="11" t="s">
         <v>194</v>
       </c>
       <c r="G32" s="3">
@@ -3140,7 +3143,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10">
       <c r="B33" s="9" t="s">
         <v>94</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10">
       <c r="B34" s="3" t="s">
         <v>98</v>
       </c>
@@ -3182,7 +3185,7 @@
       <c r="E34" s="7">
         <v>41</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3">
@@ -3198,7 +3201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10">
       <c r="B35" s="9" t="s">
         <v>94</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10">
       <c r="B36" s="3" t="s">
         <v>94</v>
       </c>
@@ -3240,7 +3243,7 @@
       <c r="E36" s="7">
         <v>43</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="11" t="s">
         <v>202</v>
       </c>
       <c r="G36" s="3">
@@ -3256,7 +3259,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10">
       <c r="B37" s="9" t="s">
         <v>94</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10">
       <c r="B38" s="3" t="s">
         <v>94</v>
       </c>
@@ -3298,7 +3301,7 @@
       <c r="E38" s="7">
         <v>48</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="11" t="s">
         <v>214</v>
       </c>
       <c r="G38" s="3">
@@ -3314,7 +3317,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10">
       <c r="B39" s="9" t="s">
         <v>94</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10">
       <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="E40" s="7">
         <v>50</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="11" t="s">
         <v>267</v>
       </c>
       <c r="G40" s="3">
@@ -3372,7 +3375,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10">
       <c r="B41" s="9" t="s">
         <v>94</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10">
       <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="E42" s="7">
         <v>56</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="3">
@@ -3430,7 +3433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10">
       <c r="B43" s="9" t="s">
         <v>98</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10">
       <c r="B44" s="3" t="s">
         <v>98</v>
       </c>
@@ -3472,7 +3475,7 @@
       <c r="E44" s="7">
         <v>59</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="11" t="s">
         <v>333</v>
       </c>
       <c r="G44" s="3">
@@ -3488,7 +3491,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10">
       <c r="B45" s="9" t="s">
         <v>94</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10">
       <c r="B46" s="3" t="s">
         <v>98</v>
       </c>
@@ -3530,7 +3533,7 @@
       <c r="E46" s="7">
         <v>61</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="11" t="s">
         <v>371</v>
       </c>
       <c r="G46" s="3">
@@ -3546,7 +3549,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10">
       <c r="B47" s="9" t="s">
         <v>94</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10">
       <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
@@ -3588,7 +3591,7 @@
       <c r="E48" s="7">
         <v>63</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="11" t="s">
         <v>198</v>
       </c>
       <c r="G48" s="3">
@@ -3604,7 +3607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:10">
       <c r="B49" s="9" t="s">
         <v>94</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:10">
       <c r="B50" s="3" t="s">
         <v>94</v>
       </c>
@@ -3646,7 +3649,7 @@
       <c r="E50" s="7">
         <v>66</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G50" s="3">
@@ -3662,7 +3665,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:10">
       <c r="B51" s="9" t="s">
         <v>94</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:10">
       <c r="B52" s="3" t="s">
         <v>94</v>
       </c>
@@ -3704,7 +3707,7 @@
       <c r="E52" s="7">
         <v>67.099999999999994</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G52" s="3">
@@ -3720,7 +3723,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:10">
       <c r="B53" s="9" t="s">
         <v>98</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:10">
       <c r="B54" s="3" t="s">
         <v>98</v>
       </c>
@@ -3762,7 +3765,7 @@
       <c r="E54" s="7">
         <v>70</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G54" s="3">
@@ -3778,7 +3781,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:10">
       <c r="B55" s="9" t="s">
         <v>98</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:10">
       <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
@@ -3820,7 +3823,7 @@
       <c r="E56" s="7">
         <v>74</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="11" t="s">
         <v>252</v>
       </c>
       <c r="G56" s="3">
@@ -3836,7 +3839,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:10">
       <c r="B57" s="9" t="s">
         <v>98</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:10">
       <c r="B58" s="3" t="s">
         <v>98</v>
       </c>
@@ -3878,7 +3881,7 @@
       <c r="E58" s="7">
         <v>77</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G58" s="3">
@@ -3894,7 +3897,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:10">
       <c r="B59" s="9" t="s">
         <v>98</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:10">
       <c r="B60" s="3" t="s">
         <v>98</v>
       </c>
@@ -3936,7 +3939,7 @@
       <c r="E60" s="7">
         <v>79</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="11" t="s">
         <v>415</v>
       </c>
       <c r="G60" s="3">
@@ -3952,7 +3955,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:10">
       <c r="B61" s="9" t="s">
         <v>98</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:10">
       <c r="B62" s="3" t="s">
         <v>94</v>
       </c>
@@ -3994,7 +3997,7 @@
       <c r="E62" s="7">
         <v>85</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G62" s="3">
@@ -4010,7 +4013,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:10">
       <c r="B63" s="9" t="s">
         <v>98</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10">
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
@@ -4052,7 +4055,7 @@
       <c r="E64" s="7">
         <v>87</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="3">
@@ -4068,7 +4071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:10">
       <c r="B65" s="9" t="s">
         <v>98</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:10">
       <c r="B66" s="3" t="s">
         <v>98</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="E66" s="7">
         <v>90</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="11" t="s">
         <v>402</v>
       </c>
       <c r="G66" s="3">
@@ -4126,7 +4129,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:10">
       <c r="B67" s="9" t="s">
         <v>98</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:10">
       <c r="B68" s="3" t="s">
         <v>98</v>
       </c>
@@ -4168,7 +4171,7 @@
       <c r="E68" s="7">
         <v>96</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="3">
@@ -4184,7 +4187,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:10">
       <c r="B69" s="9" t="s">
         <v>98</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:10">
       <c r="B70" s="3" t="s">
         <v>98</v>
       </c>
@@ -4226,7 +4229,7 @@
       <c r="E70" s="7">
         <v>98</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G70" s="3">
@@ -4242,7 +4245,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:10">
       <c r="B71" s="9" t="s">
         <v>94</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:10">
       <c r="B72" s="3" t="s">
         <v>98</v>
       </c>
@@ -4284,7 +4287,7 @@
       <c r="E72" s="7">
         <v>101</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G72" s="3">
@@ -4300,7 +4303,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:10">
       <c r="B73" s="9" t="s">
         <v>98</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:10">
       <c r="B74" s="3" t="s">
         <v>98</v>
       </c>
@@ -4342,7 +4345,7 @@
       <c r="E74" s="7">
         <v>103</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G74" s="3">
@@ -4358,7 +4361,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:10">
       <c r="B75" s="9" t="s">
         <v>98</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:10">
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
@@ -4400,7 +4403,7 @@
       <c r="E76" s="7">
         <v>105</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G76" s="3">
@@ -4416,7 +4419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:10">
       <c r="B77" s="9" t="s">
         <v>98</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:10">
       <c r="B78" s="3" t="s">
         <v>98</v>
       </c>
@@ -4458,7 +4461,7 @@
       <c r="E78" s="7">
         <v>107</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G78" s="3">
@@ -4474,7 +4477,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:10">
       <c r="B79" s="9" t="s">
         <v>98</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:10">
       <c r="B80" s="3" t="s">
         <v>98</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="E80" s="7">
         <v>116</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="11" t="s">
         <v>42</v>
       </c>
       <c r="G80" s="3">
@@ -4532,7 +4535,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:10">
       <c r="B81" s="9" t="s">
         <v>98</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:10">
       <c r="B82" s="3" t="s">
         <v>98</v>
       </c>
@@ -4574,7 +4577,7 @@
       <c r="E82" s="7">
         <v>118</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G82" s="3">
@@ -4590,7 +4593,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:10">
       <c r="B83" s="9" t="s">
         <v>98</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:10">
       <c r="B84" s="3" t="s">
         <v>98</v>
       </c>
@@ -4632,7 +4635,7 @@
       <c r="E84" s="7">
         <v>127</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="3">
@@ -4648,7 +4651,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:10">
       <c r="B85" s="9" t="s">
         <v>98</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:10">
       <c r="B86" s="3" t="s">
         <v>98</v>
       </c>
@@ -4690,7 +4693,7 @@
       <c r="E86" s="7">
         <v>133</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="11" t="s">
         <v>474</v>
       </c>
       <c r="G86" s="3">
@@ -4706,7 +4709,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:10">
       <c r="B87" s="9" t="s">
         <v>98</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:10">
       <c r="B88" s="3" t="s">
         <v>98</v>
       </c>
@@ -4748,7 +4751,7 @@
       <c r="E88" s="7">
         <v>135</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G88" s="3">
@@ -4764,7 +4767,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:10">
       <c r="B89" s="9" t="s">
         <v>98</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:10">
       <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
@@ -4806,7 +4809,7 @@
       <c r="E90" s="7">
         <v>137</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G90" s="3">
@@ -4822,7 +4825,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:10">
       <c r="B91" s="9" t="s">
         <v>98</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:10">
       <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
@@ -4864,7 +4867,7 @@
       <c r="E92" s="7">
         <v>139</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="11" t="s">
         <v>373</v>
       </c>
       <c r="G92" s="3">
@@ -4880,7 +4883,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:10">
       <c r="B93" s="9" t="s">
         <v>98</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:10">
       <c r="B94" s="3" t="s">
         <v>98</v>
       </c>
@@ -4917,12 +4920,12 @@
         <v>175</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E94" s="7">
         <v>141</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G94" s="3">
@@ -4938,7 +4941,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:10">
       <c r="B95" s="9" t="s">
         <v>98</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:10">
       <c r="B96" s="3" t="s">
         <v>98</v>
       </c>
@@ -4980,7 +4983,7 @@
       <c r="E96" s="7">
         <v>148</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="11" t="s">
         <v>431</v>
       </c>
       <c r="G96" s="3">
@@ -4996,7 +4999,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:10">
       <c r="B97" s="9" t="s">
         <v>98</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:10">
       <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
@@ -5038,7 +5041,7 @@
       <c r="E98" s="7">
         <v>150</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="11" t="s">
         <v>438</v>
       </c>
       <c r="G98" s="3">
@@ -5054,7 +5057,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:10">
       <c r="B99" s="9" t="s">
         <v>98</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:10">
       <c r="B100" s="3" t="s">
         <v>98</v>
       </c>
@@ -5096,7 +5099,7 @@
       <c r="E100" s="7">
         <v>152</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="11" t="s">
         <v>353</v>
       </c>
       <c r="G100" s="3">
@@ -5112,7 +5115,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:10">
       <c r="B101" s="9" t="s">
         <v>98</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:10">
       <c r="B102" s="3" t="s">
         <v>98</v>
       </c>
@@ -5154,7 +5157,7 @@
       <c r="E102" s="7">
         <v>160</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="3">
@@ -5170,7 +5173,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:10">
       <c r="B103" s="9" t="s">
         <v>98</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:10">
       <c r="B104" s="3" t="s">
         <v>98</v>
       </c>
@@ -5212,7 +5215,7 @@
       <c r="E104" s="7">
         <v>162</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="11" t="s">
         <v>307</v>
       </c>
       <c r="G104" s="3">
@@ -5228,7 +5231,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:10">
       <c r="B105" s="9" t="s">
         <v>98</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:10">
       <c r="B106" s="3" t="s">
         <v>98</v>
       </c>
@@ -5270,7 +5273,7 @@
       <c r="E106" s="7">
         <v>164</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="11" t="s">
         <v>190</v>
       </c>
       <c r="G106" s="3">
@@ -5286,7 +5289,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:10">
       <c r="B107" s="9" t="s">
         <v>98</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:10">
       <c r="B108" s="3" t="s">
         <v>98</v>
       </c>
@@ -5328,7 +5331,7 @@
       <c r="E108" s="7">
         <v>177</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G108" s="3">
@@ -5344,7 +5347,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:10">
       <c r="B109" s="9" t="s">
         <v>98</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:10">
       <c r="B110" s="3" t="s">
         <v>98</v>
       </c>
@@ -5386,7 +5389,7 @@
       <c r="E110" s="7">
         <v>181</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G110" s="3">
@@ -5402,7 +5405,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:10">
       <c r="B111" s="9" t="s">
         <v>98</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:10">
       <c r="B112" s="3" t="s">
         <v>98</v>
       </c>
@@ -5444,7 +5447,7 @@
       <c r="E112" s="7">
         <v>183</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="3">
@@ -5460,7 +5463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:10">
       <c r="B113" s="9" t="s">
         <v>98</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:10">
       <c r="B114" s="3" t="s">
         <v>98</v>
       </c>
@@ -5502,7 +5505,7 @@
       <c r="E114" s="7">
         <v>185</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G114" s="3">
@@ -5518,7 +5521,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:10">
       <c r="B115" s="9" t="s">
         <v>98</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:10">
       <c r="B116" s="3" t="s">
         <v>98</v>
       </c>
@@ -5560,7 +5563,7 @@
       <c r="E116" s="7">
         <v>188</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="11" t="s">
         <v>159</v>
       </c>
       <c r="G116" s="3">
@@ -5576,7 +5579,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:10">
       <c r="B117" s="9" t="s">
         <v>98</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:10">
       <c r="B118" s="3" t="s">
         <v>98</v>
       </c>
@@ -5618,7 +5621,7 @@
       <c r="E118" s="7">
         <v>190</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G118" s="3">
@@ -5634,7 +5637,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:10">
       <c r="B119" s="9" t="s">
         <v>98</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:10">
       <c r="B120" s="3" t="s">
         <v>98</v>
       </c>
@@ -5676,7 +5679,7 @@
       <c r="E120" s="7">
         <v>192</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G120" s="3">
@@ -5692,7 +5695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:10">
       <c r="B121" s="9" t="s">
         <v>98</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:10">
       <c r="B122" s="3" t="s">
         <v>98</v>
       </c>
@@ -5734,7 +5737,7 @@
       <c r="E122" s="7">
         <v>196</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G122" s="3">
@@ -5750,7 +5753,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:10">
       <c r="B123" s="9" t="s">
         <v>98</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:10">
       <c r="B124" s="3" t="s">
         <v>98</v>
       </c>
@@ -5792,7 +5795,7 @@
       <c r="E124" s="7">
         <v>202</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="11" t="s">
         <v>320</v>
       </c>
       <c r="G124" s="3">
@@ -5808,7 +5811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:10">
       <c r="B125" s="9" t="s">
         <v>98</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:10">
       <c r="B126" s="3" t="s">
         <v>98</v>
       </c>
@@ -5850,7 +5853,7 @@
       <c r="E126" s="7">
         <v>224</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="11" t="s">
         <v>124</v>
       </c>
       <c r="G126" s="3">
@@ -5866,7 +5869,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:10">
       <c r="B127" s="9" t="s">
         <v>98</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:10">
       <c r="B128" s="3" t="s">
         <v>98</v>
       </c>
@@ -5908,7 +5911,7 @@
       <c r="E128" s="7">
         <v>226</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G128" s="3">
@@ -5924,7 +5927,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:10">
       <c r="B129" s="9" t="s">
         <v>98</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:10">
       <c r="B130" s="3" t="s">
         <v>98</v>
       </c>
@@ -5966,7 +5969,7 @@
       <c r="E130" s="7">
         <v>228</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="11" t="s">
         <v>401</v>
       </c>
       <c r="G130" s="3">
@@ -5982,7 +5985,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:10">
       <c r="B131" s="9" t="s">
         <v>98</v>
       </c>
@@ -6011,12 +6014,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:10">
       <c r="B132" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:10">
       <c r="B133" s="1" t="s">
         <v>89</v>
       </c>
